--- a/IFCC_Report/Template/Book1.xlsx
+++ b/IFCC_Report/Template/Book1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IFCC_Report\IFCC_Report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE1BB20-BA57-4A6E-BEED-30C00ABEA25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A0A4B-BD49-4F1D-AB29-2F41DDBCA0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F1037CA-E091-48BF-82CE-FC981176D480}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F1037CA-E091-48BF-82CE-FC981176D480}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Detail" sheetId="1" r:id="rId1"/>
-    <sheet name=" Outbound Detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
-  <si>
-    <t>CaseID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>วันที่</t>
   </si>
@@ -47,23 +43,6 @@
   </si>
   <si>
     <t>ประเภทสมาชิก</t>
-  </si>
-  <si>
-    <t>ชื่อ-นามสกุลเจ้าของสิทธิ์</t>
-  </si>
-  <si>
-    <t>ชื่อ-นามสกุลผู้ใช้สิทธิ์</t>
-  </si>
-  <si>
-    <t>หมวดบริการ
-(ServiceGroup)</t>
-  </si>
-  <si>
-    <t>ประเภทบริการ
-(ServiceType)</t>
-  </si>
-  <si>
-    <t>ServiceRequest</t>
   </si>
   <si>
     <t>Solution</t>
@@ -99,19 +78,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Prompt"/>
     </font>
     <font>
       <sz val="11"/>
@@ -166,52 +139,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <condense val="0"/>
@@ -536,127 +488,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C4D48-68CE-433D-B7DE-AED8D2196CF2}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.36328125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="33.08984375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="24.54296875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="26.26953125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="33.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.08984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:F1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="204" verticalDpi="196" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A900FC1-73AE-4DBF-92D1-59A33D9D1AF0}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="37.36328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="34" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="29.90625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="32.54296875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="39" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -664,5 +548,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="204" verticalDpi="196" r:id="rId1"/>
 </worksheet>
 </file>